--- a/MSCI-ACWI-World-Dividends.xlsx
+++ b/MSCI-ACWI-World-Dividends.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3938AFA7-E414-467B-B979-0F558B1D299F}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC23C91-6F61-4AC9-832C-26E5A8F42EB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACWI" sheetId="1" r:id="rId1"/>
     <sheet name="World" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -251,6 +252,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1189,6 +1191,582 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>World!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>World!$B$2:$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>Dec 31, 1969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dec 31, 1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dec 31, 1971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dec 29, 1972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec 31, 1973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dec 31, 1974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dec 31, 1975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dec 31, 1976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dec 30, 1977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dec 29, 1978</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec 31, 1979</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec 31, 1980</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dec 31, 1981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dec 31, 1982</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dec 30, 1983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dec 31, 1984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dec 31, 1985</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Dec 31, 1986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Dec 31, 1987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Dec 30, 1988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Dec 29, 1989</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Dec 31, 1990</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Dec 31, 1991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dec 31, 1992</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Dec 31, 1993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Dec 30, 1994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Dec 29, 1995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Dec 31, 1996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Dec 31, 1997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Dec 31, 1998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Dec 31, 1999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Dec 29, 2000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Dec 31, 2001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Dec 31, 2002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Dec 31, 2003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Dec 31, 2004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Dec 30, 2005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Dec 29, 2006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Dec 31, 2007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Dec 31, 2008</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Dec 31, 2009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Dec 31, 2010</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Dec 30, 2011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Dec 31, 2012</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Dec 31, 2013</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Dec 31, 2014</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Dec 31, 2015</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Dec 30, 2016</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Dec 29, 2017</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Dec 31, 2018</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Dec 31, 2019</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Dec 31, 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>World!$C$2:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144790</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>269277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>331964</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>351132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>497798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>710853</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>830015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1028809</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1205700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1006546</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1197460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1141660</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1405713</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1484177</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1800553</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2052559</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2385630</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2977153</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3731559</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3249513</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2712658</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2182570</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2919442</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3364558</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3701795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4466298</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4893543</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2919783</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3818859</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4290045</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4074834</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4748699</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6048181</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6381054</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6360575</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6879162</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8466345</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7771710</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9979034</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11625199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C3C-43CA-813A-87E5B18451D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="657792024"/>
+        <c:axId val="657792352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="657792024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657792352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="657792352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657792024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1229,7 +1807,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1786,6 +2920,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0446C5A7-E9C8-4062-98D9-1A67A0EE4CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2052,7 +3229,7 @@
   <dimension ref="B1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,9 +4297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4469D83F-634E-4729-B443-8FA85FC79609}">
   <dimension ref="B1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" activeCellId="2" sqref="M35 M36 M38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5672,4 +6847,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF55B7CF-1982-4E0D-BC55-C9CE3519444C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/MSCI-ACWI-World-Dividends.xlsx
+++ b/MSCI-ACWI-World-Dividends.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC23C91-6F61-4AC9-832C-26E5A8F42EB9}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A900005-9C2D-4D20-AC0F-752C1750B419}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7995" yWindow="2385" windowWidth="21915" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACWI" sheetId="1" r:id="rId1"/>
     <sheet name="World" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>Dec 31, 1987</t>
   </si>
@@ -228,6 +227,9 @@
   </si>
   <si>
     <t>NL min</t>
+  </si>
+  <si>
+    <t>Dec 31, 2021</t>
   </si>
 </sst>
 </file>
@@ -289,7 +291,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,6 +301,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5D92B71D-87E7-4ADB-B7BD-6962C0146089}"/>
@@ -386,9 +390,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>World!$B$7:$B$53</c:f>
+              <c:f>World!$B$7:$B$54</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>Dec 31, 1974</c:v>
                 </c:pt>
@@ -529,16 +533,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>Dec 31, 2020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Dec 31, 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>World!$M$7:$M$53</c:f>
+              <c:f>World!$M$7:$M$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="5" formatCode="0.00%">
                   <c:v>4.2656554999419595E-2</c:v>
                 </c:pt>
@@ -664,6 +671,9 @@
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00%">
                   <c:v>2.789244846517348E-2</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00%">
+                  <c:v>2.7504965246027486E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,9 +702,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>World!$B$7:$B$53</c:f>
+              <c:f>World!$B$7:$B$54</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>Dec 31, 1974</c:v>
                 </c:pt>
@@ -835,16 +845,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>Dec 31, 2020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Dec 31, 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>World!$N$7:$N$53</c:f>
+              <c:f>World!$N$7:$N$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>3.4441527689641219E-2</c:v>
                 </c:pt>
@@ -985,6 +998,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2.7351481886161943E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6102674139478633E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,582 +1207,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>World!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gross</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>World!$B$2:$B$53</c:f>
-              <c:strCache>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>Dec 31, 1969</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dec 31, 1970</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dec 31, 1971</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Dec 29, 1972</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dec 31, 1973</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Dec 31, 1974</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Dec 31, 1975</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Dec 31, 1976</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Dec 30, 1977</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Dec 29, 1978</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Dec 31, 1979</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec 31, 1980</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Dec 31, 1981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Dec 31, 1982</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Dec 30, 1983</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Dec 31, 1984</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Dec 31, 1985</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Dec 31, 1986</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Dec 31, 1987</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Dec 30, 1988</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Dec 29, 1989</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Dec 31, 1990</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Dec 31, 1991</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Dec 31, 1992</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Dec 31, 1993</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Dec 30, 1994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Dec 29, 1995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Dec 31, 1996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Dec 31, 1997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Dec 31, 1998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Dec 31, 1999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Dec 29, 2000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Dec 31, 2001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Dec 31, 2002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Dec 31, 2003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Dec 31, 2004</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Dec 30, 2005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Dec 29, 2006</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Dec 31, 2007</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Dec 31, 2008</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Dec 31, 2009</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Dec 31, 2010</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Dec 30, 2011</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Dec 31, 2012</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Dec 31, 2013</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Dec 31, 2014</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Dec 31, 2015</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Dec 30, 2016</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Dec 29, 2017</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Dec 31, 2018</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Dec 31, 2019</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Dec 31, 2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>World!$C$2:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>117193</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>144790</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>123787</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>93484</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125732</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>144228</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>147115</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>173914</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>195949</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>250269</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>241998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>269277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>331964</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>351132</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>497798</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>710853</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>830015</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1028809</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1205700</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1006546</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1197460</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1141660</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1405713</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1484177</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1800553</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2052559</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2385630</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2977153</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3731559</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3249513</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2712658</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2182570</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2919442</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3364558</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3701795</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4466298</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4893543</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2919783</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3818859</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4290045</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4074834</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4748699</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6048181</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6381054</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6360575</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6879162</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8466345</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7771710</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9979034</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11625199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C3C-43CA-813A-87E5B18451D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="657792024"/>
-        <c:axId val="657792352"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="657792024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="657792352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="657792352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="657792024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1807,563 +1247,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2920,49 +1804,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0446C5A7-E9C8-4062-98D9-1A67A0EE4CF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3226,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O40"/>
+  <dimension ref="B1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,7 +2146,7 @@
         <v>145870</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D35" si="0">(C4-C3)/C3</f>
+        <f t="shared" ref="D4:D36" si="0">(C4-C3)/C3</f>
         <v>0.17645635570323653</v>
       </c>
       <c r="I4" s="3">
@@ -3533,14 +2374,14 @@
         <v>67605</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17:G35" si="2">(F17-F16)/F16</f>
+        <f t="shared" ref="G17:G36" si="2">(F17-F16)/F16</f>
         <v>-0.1931711042952107</v>
       </c>
       <c r="I17" s="3">
         <v>190797</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" ref="J17:J35" si="3">(I17-I16)/I16</f>
+        <f t="shared" ref="J17:J36" si="3">(I17-I16)/I16</f>
         <v>-0.20512179575308395</v>
       </c>
       <c r="L17" s="5">
@@ -3548,11 +2389,11 @@
         <v>1.5339882624667539E-2</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" ref="M17:M35" si="4">D17-G17</f>
+        <f t="shared" ref="M17:M36" si="4">D17-G17</f>
         <v>3.3891911667942864E-3</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" ref="O17:O35" si="5">M17/L17</f>
+        <f t="shared" ref="O17:O36" si="5">M17/L17</f>
         <v>0.2209398370065912</v>
       </c>
     </row>
@@ -4240,51 +3081,89 @@
         <v>0.22852606568971481</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L37" s="5">
-        <f>AVERAGE(L26:L35)</f>
-        <v>2.7985670942384223E-2</v>
-      </c>
-      <c r="M37" s="5">
-        <f t="shared" ref="M37:O37" si="6">AVERAGE(M26:M35)</f>
-        <v>5.8896417250109559E-3</v>
-      </c>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5">
-        <f t="shared" si="6"/>
-        <v>0.21086573971479297</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L39" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="M39" s="5">
-        <f>100%-L39</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="N39" s="5">
-        <f>M39*O37</f>
-        <v>1.0543286985739657E-2</v>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1642385</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19036523034908229</v>
+      </c>
+      <c r="F36" s="10">
+        <v>389045</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18537555910348441</v>
+      </c>
+      <c r="I36" s="3">
+        <v>754828</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1679798473698218</v>
+      </c>
+      <c r="L36" s="5">
+        <f>D36-J36</f>
+        <v>2.2385382979260487E-2</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" si="4"/>
+        <v>4.9896712455978764E-3</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="5"/>
+        <v>0.22289863212171468</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L38" s="5">
+        <f>AVERAGE(L27:L36)</f>
+        <v>2.7673585940966427E-2</v>
+      </c>
+      <c r="M38" s="5">
+        <f>AVERAGE(M27:M36)</f>
+        <v>5.9043766460282997E-3</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5">
+        <f>AVERAGE(O27:O36)</f>
+        <v>0.21417074523876672</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L40" s="8">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="M40" s="5">
         <f>100%-L40</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="N40" s="5">
+        <f>M40*O38</f>
+        <v>1.0708537261938345E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="M41" s="5">
+        <f>100%-L41</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="N40" s="5">
-        <f>M40*O37</f>
-        <v>4.2173147942958632E-3</v>
+      <c r="N41" s="5">
+        <f>M41*O38</f>
+        <v>4.2834149047753381E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4297,7 +3176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4469D83F-634E-4729-B443-8FA85FC79609}">
   <dimension ref="B1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X51" sqref="X51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4405,21 +3286,21 @@
         <v>117193</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D53" si="1">(C4-C3)/C3</f>
+        <f t="shared" ref="D4:D54" si="1">(C4-C3)/C3</f>
         <v>0.1956395319179326</v>
       </c>
       <c r="F4" s="7">
         <v>114712</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G53" si="2">(F4-F3)/F3</f>
+        <f t="shared" ref="G4:G54" si="2">(F4-F3)/F3</f>
         <v>0.18363514419852447</v>
       </c>
       <c r="I4" s="3">
         <v>108993</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J53" si="3">(I4-I3)/I3</f>
+        <f t="shared" ref="J4:J54" si="3">(I4-I3)/I3</f>
         <v>0.15590930301616257</v>
       </c>
       <c r="L4" s="5">
@@ -4427,7 +3308,7 @@
         <v>3.9730228901770026E-2</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P53" si="5">D4-G4</f>
+        <f t="shared" ref="P4:P54" si="5">D4-G4</f>
         <v>1.2004387719408122E-2</v>
       </c>
       <c r="R4" s="5">
@@ -4583,7 +3464,7 @@
         <v>5.5759220417004485E-2</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" ref="N8:N53" si="6">AVERAGE(L4:L8)</f>
+        <f t="shared" ref="N8:N54" si="6">AVERAGE(L4:L8)</f>
         <v>3.8143371773042112E-2</v>
       </c>
       <c r="P8" s="5">
@@ -4801,7 +3682,7 @@
         <v>6.2670478131131913E-2</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" ref="M13:M53" si="7">AVERAGE(L4:L13)</f>
+        <f t="shared" ref="M13:M54" si="7">AVERAGE(L4:L13)</f>
         <v>4.5198602812532782E-2</v>
       </c>
       <c r="N13" s="5">
@@ -4817,7 +3698,7 @@
         <v>0.32704116999971111</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" ref="S13:S53" si="8">AVERAGE(R4:R13)</f>
+        <f t="shared" ref="S13:S54" si="8">AVERAGE(R4:R13)</f>
         <v>0.30254401075930809</v>
       </c>
     </row>
@@ -5751,7 +4632,7 @@
         <v>4.0496945057380829E-3</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" ref="R32:R53" si="10">P32/L32</f>
+        <f t="shared" ref="R32:R54" si="10">P32/L32</f>
         <v>0.22757845965902579</v>
       </c>
       <c r="S32" s="5">
@@ -5785,7 +4666,7 @@
         <v>-0.14049835137959793</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" ref="L33:L53" si="11">D33-J33</f>
+        <f t="shared" ref="L33:L54" si="11">D33-J33</f>
         <v>1.1317491583464456E-2</v>
       </c>
       <c r="M33" s="5">
@@ -6810,7 +5691,54 @@
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N54" s="5"/>
+      <c r="B54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="9">
+        <v>14223137</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22347471213180953</v>
+      </c>
+      <c r="F54" s="9">
+        <v>9755694</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21817231460499062</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3231727</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20136585126488638</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="shared" si="11"/>
+        <v>2.2108860866923152E-2</v>
+      </c>
+      <c r="M54" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7504965246027486E-2</v>
+      </c>
+      <c r="N54" s="5">
+        <f t="shared" si="6"/>
+        <v>2.6102674139478633E-2</v>
+      </c>
+      <c r="P54" s="5">
+        <f t="shared" si="5"/>
+        <v>5.3023975268189083E-3</v>
+      </c>
+      <c r="R54" s="5">
+        <f t="shared" si="10"/>
+        <v>0.23983133091907835</v>
+      </c>
+      <c r="S54" s="5">
+        <f t="shared" si="8"/>
+        <v>0.22622297897788055</v>
+      </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L55" s="5"/>
@@ -6832,7 +5760,7 @@
       <c r="N59" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M12:M53">
+  <conditionalFormatting sqref="M12:M54">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6847,19 +5775,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF55B7CF-1982-4E0D-BC55-C9CE3519444C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>